--- a/NNSuperBest/data.xlsx
+++ b/NNSuperBest/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>delta</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>10-0.01</t>
+  </si>
+  <si>
+    <t>0.8, 1.3, 0.5</t>
   </si>
 </sst>
 </file>
@@ -106,6 +109,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5668,11 +5672,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-396567536"/>
-        <c:axId val="-396557744"/>
+        <c:axId val="1812836880"/>
+        <c:axId val="1812837424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-396567536"/>
+        <c:axId val="1812836880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5714,7 +5718,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-396557744"/>
+        <c:crossAx val="1812837424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5722,7 +5726,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-396557744"/>
+        <c:axId val="1812837424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5773,7 +5777,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-396567536"/>
+        <c:crossAx val="1812836880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5787,6 +5791,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5900,54 +5905,133 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.35020186020307E-2"/>
+          <c:y val="9.0338494349328946E-2"/>
+          <c:w val="0.94023003769060531"/>
+          <c:h val="0.86067149315832525"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$498:$G$498</c:f>
+              <c:f>Sheet1!$A$578:$D$578</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>79.709900000000005</c:v>
+                  <c:v>2239.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>84.622500000000002</c:v>
+                  <c:v>2230.9899999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79.037700000000001</c:v>
+                  <c:v>2217.96</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74.417500000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>79.370400000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>79.370400000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>79.370400000000004</c:v>
+                  <c:v>2197.98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$579:$D$579</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$580:$D$580</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2241.38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2230.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2215.23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2199.14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5957,13 +6041,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-377087712"/>
-        <c:axId val="-377087168"/>
-      </c:barChart>
+        <c:smooth val="0"/>
+        <c:axId val="1832526640"/>
+        <c:axId val="1832517392"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="-377087712"/>
+        <c:axId val="1832526640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6005,7 +6088,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-377087168"/>
+        <c:crossAx val="1832517392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6013,7 +6096,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-377087168"/>
+        <c:axId val="1832517392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6064,7 +6147,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-377087712"/>
+        <c:crossAx val="1832526640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6076,6 +6159,916 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$601:$R$601</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.650000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67.95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67.95</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67.95</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>67.95</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>67.95</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>67.95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67.95</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$602:$R$602</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>441.05099999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256.80599999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.8352</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101.60899999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.572299999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72.094499999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75.069699999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75.790899999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75.821299999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75.4148</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>74.791300000000007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>74.099400000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>73.425899999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>72.814800000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>72.283799999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>71.8352</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>71.4636</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>71.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$603:$R$603</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>444.63400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>248.97900000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.278300000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.345799999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77.057199999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75.466800000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78.1173</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78.247</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>77.599400000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>76.433899999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>74.994399999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>73.472300000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72.0017</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70.665599999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>69.507499999999993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>68.5428</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67.767899999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67.1678</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1832519568"/>
+        <c:axId val="1832521200"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1832519568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1832521200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1832521200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1832519568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$496:$G$496</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>64.254999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.638000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.701999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.403999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63.191000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$497:$G$497</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>32.127499999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.255000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.319000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.850999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46.701999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.595500000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$498:$G$498</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>64.227099999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.289199999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.537499999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88.955600000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92.474999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63.159599999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83.290300000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$499:$G$499</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>32.0321</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.7072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.410699999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.659599999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.018500000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.3596</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.409199999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1828965200"/>
+        <c:axId val="1828955408"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1828965200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1828955408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1828955408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1828965200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -6128,6 +7121,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13408,11 +14402,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-396562096"/>
-        <c:axId val="-396568080"/>
+        <c:axId val="1812832528"/>
+        <c:axId val="1812831984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-396562096"/>
+        <c:axId val="1812832528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13454,7 +14448,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-396568080"/>
+        <c:crossAx val="1812831984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13462,7 +14456,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-396568080"/>
+        <c:axId val="1812831984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13513,7 +14507,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-396562096"/>
+        <c:crossAx val="1812832528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13527,6 +14521,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13608,6 +14603,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -31618,11 +32614,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-396559920"/>
-        <c:axId val="-396565360"/>
+        <c:axId val="1812828176"/>
+        <c:axId val="1812833072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-396559920"/>
+        <c:axId val="1812828176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -31664,7 +32660,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-396565360"/>
+        <c:crossAx val="1812833072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -31672,7 +32668,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-396565360"/>
+        <c:axId val="1812833072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -31723,7 +32719,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-396559920"/>
+        <c:crossAx val="1812828176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -31737,6 +32733,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -31818,6 +32815,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -32003,11 +33001,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-396554480"/>
-        <c:axId val="-396562640"/>
+        <c:axId val="1812828720"/>
+        <c:axId val="1812839056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-396554480"/>
+        <c:axId val="1812828720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -32049,7 +33047,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-396562640"/>
+        <c:crossAx val="1812839056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -32057,7 +33055,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-396562640"/>
+        <c:axId val="1812839056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -32108,7 +33106,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-396554480"/>
+        <c:crossAx val="1812828720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -32122,6 +33120,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -32301,11 +33300,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-396566992"/>
-        <c:axId val="-396566448"/>
+        <c:axId val="1812827088"/>
+        <c:axId val="1812829264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-396566992"/>
+        <c:axId val="1812827088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -32347,7 +33346,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-396566448"/>
+        <c:crossAx val="1812829264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -32355,7 +33354,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-396566448"/>
+        <c:axId val="1812829264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -32406,7 +33405,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-396566992"/>
+        <c:crossAx val="1812827088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -32581,11 +33580,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-396569168"/>
-        <c:axId val="-396564816"/>
+        <c:axId val="1812824368"/>
+        <c:axId val="1812834704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-396569168"/>
+        <c:axId val="1812824368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -32627,7 +33626,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-396564816"/>
+        <c:crossAx val="1812834704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -32635,7 +33634,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-396564816"/>
+        <c:axId val="1812834704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -32686,7 +33685,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-396569168"/>
+        <c:crossAx val="1812824368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -32848,11 +33847,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-396561552"/>
-        <c:axId val="-396568624"/>
+        <c:axId val="1812824912"/>
+        <c:axId val="1812839600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-396561552"/>
+        <c:axId val="1812824912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -32894,7 +33893,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-396568624"/>
+        <c:crossAx val="1812839600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -32902,7 +33901,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-396568624"/>
+        <c:axId val="1812839600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -32953,7 +33952,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-396561552"/>
+        <c:crossAx val="1812824912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -33050,53 +34049,161 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$496:$G$496</c:f>
+              <c:f>Sheet1!$A$519:$I$519</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>64.254999999999995</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78.510000000000005</c:v>
+                  <c:v>93.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70.638000000000005</c:v>
+                  <c:v>79.650000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91.701999999999998</c:v>
+                  <c:v>77.849999999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>93.403999999999996</c:v>
+                  <c:v>75.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>63.191000000000003</c:v>
+                  <c:v>73.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$520:$I$520</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>449.94600000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.262</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.566299999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.022000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77.658100000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76.269099999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>73.161799999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69.579300000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66.2089</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$521:$I$521</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>449.09399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.558099999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.581299999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.933599999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.724800000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76.117900000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>73.505799999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69.7209</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65.469200000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -33106,13 +34213,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-377088256"/>
-        <c:axId val="-377093696"/>
-      </c:barChart>
+        <c:smooth val="0"/>
+        <c:axId val="1828949968"/>
+        <c:axId val="1828953776"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="-377088256"/>
+        <c:axId val="1828949968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -33154,7 +34260,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-377093696"/>
+        <c:crossAx val="1828953776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -33162,7 +34268,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-377093696"/>
+        <c:axId val="1828953776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -33213,7 +34319,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-377088256"/>
+        <c:crossAx val="1828949968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -33225,6 +34331,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -33310,53 +34448,149 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$497:$G$497</c:f>
+              <c:f>Sheet1!$A$536:$G$536</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>83.233099999999993</c:v>
+                  <c:v>64.254999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>86.117900000000006</c:v>
+                  <c:v>78.510000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78.336799999999997</c:v>
+                  <c:v>70.638000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75.688599999999994</c:v>
+                  <c:v>91.701999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80.742699999999999</c:v>
+                  <c:v>93.403999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80.742699999999999</c:v>
+                  <c:v>63.191000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80.742699999999999</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$537:$G$537</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>64.267300000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.513499999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.627399999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.416300000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.2898</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63.164200000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80.100800000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$538:$G$538</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>64.373699999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.249300000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.9816</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90.661500000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.003299999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63.240099999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80.7256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -33366,13 +34600,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-377092064"/>
-        <c:axId val="-377091520"/>
-      </c:barChart>
+        <c:smooth val="0"/>
+        <c:axId val="1610900928"/>
+        <c:axId val="1610899296"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="-377092064"/>
+        <c:axId val="1610900928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -33414,7 +34647,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-377091520"/>
+        <c:crossAx val="1610899296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -33422,7 +34655,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-377091520"/>
+        <c:axId val="1610899296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -33473,7 +34706,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-377092064"/>
+        <c:crossAx val="1610900928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -33563,6 +34796,86 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -34439,6 +35752,1038 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -37986,7 +40331,7 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -38094,6 +40439,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -38104,6 +40454,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -38135,6 +40490,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -38489,7 +40847,7 @@
 </file>
 
 <file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -38597,6 +40955,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -38607,6 +40970,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -38638,6 +41006,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -39085,16 +41456,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>446313</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>41564</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>46263</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>136814</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>67</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>207</xdr:row>
-      <xdr:rowOff>13062</xdr:rowOff>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>108312</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -39205,20 +41576,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>107576</xdr:colOff>
-      <xdr:row>496</xdr:row>
-      <xdr:rowOff>26894</xdr:rowOff>
+      <xdr:row>513</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>412376</xdr:colOff>
-      <xdr:row>511</xdr:row>
-      <xdr:rowOff>80682</xdr:rowOff>
+      <xdr:row>528</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvPr id="14" name="Chart 13"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -39235,20 +41606,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>502023</xdr:colOff>
-      <xdr:row>496</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>528</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>197223</xdr:colOff>
-      <xdr:row>512</xdr:row>
-      <xdr:rowOff>26894</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>557</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvPr id="17" name="Chart 16"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -39265,20 +41636,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>53788</xdr:colOff>
-      <xdr:row>499</xdr:row>
-      <xdr:rowOff>143436</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>564</xdr:row>
+      <xdr:rowOff>125505</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>358588</xdr:colOff>
-      <xdr:row>515</xdr:row>
-      <xdr:rowOff>17930</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>268940</xdr:colOff>
+      <xdr:row>595</xdr:row>
+      <xdr:rowOff>62752</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvPr id="19" name="Chart 18"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -39288,6 +41659,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>582707</xdr:colOff>
+      <xdr:row>583</xdr:row>
+      <xdr:rowOff>26895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>615</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="Chart 19"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>233082</xdr:colOff>
+      <xdr:row>489</xdr:row>
+      <xdr:rowOff>62752</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>89646</xdr:colOff>
+      <xdr:row>510</xdr:row>
+      <xdr:rowOff>26894</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Chart 20"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -39559,10 +41990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I498"/>
+  <dimension ref="A1:R603"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A486" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G497" sqref="G497"/>
+    <sheetView tabSelected="1" topLeftCell="A482" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X491" sqref="X491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52840,48 +55271,443 @@
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A497">
-        <v>83.233099999999993</v>
+        <f>A496/2</f>
+        <v>32.127499999999998</v>
       </c>
       <c r="B497">
-        <v>86.117900000000006</v>
+        <f>B496/2</f>
+        <v>39.255000000000003</v>
       </c>
       <c r="C497">
-        <v>78.336799999999997</v>
+        <f>C496/2</f>
+        <v>35.319000000000003</v>
       </c>
       <c r="D497">
-        <v>75.688599999999994</v>
+        <f>D496/2</f>
+        <v>45.850999999999999</v>
       </c>
       <c r="E497">
-        <v>80.742699999999999</v>
+        <f>E496/2</f>
+        <v>46.701999999999998</v>
       </c>
       <c r="F497">
-        <v>80.742699999999999</v>
+        <f>F496/2</f>
+        <v>31.595500000000001</v>
       </c>
       <c r="G497">
-        <v>80.742699999999999</v>
+        <f>G496/2</f>
+        <v>40</v>
       </c>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A498">
-        <v>79.709900000000005</v>
+        <v>64.227099999999993</v>
       </c>
       <c r="B498">
-        <v>84.622500000000002</v>
+        <v>77.289199999999994</v>
       </c>
       <c r="C498">
-        <v>79.037700000000001</v>
+        <v>70.537499999999994</v>
       </c>
       <c r="D498">
-        <v>74.417500000000004</v>
+        <v>88.955600000000004</v>
       </c>
       <c r="E498">
-        <v>79.370400000000004</v>
+        <v>92.474999999999994</v>
       </c>
       <c r="F498">
-        <v>79.370400000000004</v>
+        <v>63.159599999999998</v>
       </c>
       <c r="G498">
-        <v>79.370400000000004</v>
+        <v>83.290300000000002</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A499">
+        <v>32.0321</v>
+      </c>
+      <c r="B499">
+        <v>39.7072</v>
+      </c>
+      <c r="C499">
+        <v>35.410699999999999</v>
+      </c>
+      <c r="D499">
+        <v>40.659599999999998</v>
+      </c>
+      <c r="E499">
+        <v>48.018500000000003</v>
+      </c>
+      <c r="F499">
+        <v>33.3596</v>
+      </c>
+      <c r="G499">
+        <v>41.409199999999998</v>
+      </c>
+    </row>
+    <row r="519" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A519">
+        <v>450</v>
+      </c>
+      <c r="B519">
+        <v>93.6</v>
+      </c>
+      <c r="C519">
+        <v>79.650000000000006</v>
+      </c>
+      <c r="D519">
+        <v>77.849999999999994</v>
+      </c>
+      <c r="E519">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="F519">
+        <v>73.8</v>
+      </c>
+      <c r="G519">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="520" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A520">
+        <v>449.94600000000003</v>
+      </c>
+      <c r="B520">
+        <v>98.262</v>
+      </c>
+      <c r="C520">
+        <v>73.566299999999998</v>
+      </c>
+      <c r="D520">
+        <v>76.022000000000006</v>
+      </c>
+      <c r="E520">
+        <v>77.658100000000005</v>
+      </c>
+      <c r="F520">
+        <v>76.269099999999995</v>
+      </c>
+      <c r="G520">
+        <v>73.161799999999999</v>
+      </c>
+      <c r="H520">
+        <v>69.579300000000003</v>
+      </c>
+      <c r="I520">
+        <v>66.2089</v>
+      </c>
+    </row>
+    <row r="521" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A521">
+        <v>449.09399999999999</v>
+      </c>
+      <c r="B521">
+        <v>98.558099999999996</v>
+      </c>
+      <c r="C521">
+        <v>73.581299999999999</v>
+      </c>
+      <c r="D521">
+        <v>74.933599999999998</v>
+      </c>
+      <c r="E521">
+        <v>76.724800000000002</v>
+      </c>
+      <c r="F521">
+        <v>76.117900000000006</v>
+      </c>
+      <c r="G521">
+        <v>73.505799999999994</v>
+      </c>
+      <c r="H521">
+        <v>69.7209</v>
+      </c>
+      <c r="I521">
+        <v>65.469200000000001</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A536">
+        <v>64.254999999999995</v>
+      </c>
+      <c r="B536">
+        <v>78.510000000000005</v>
+      </c>
+      <c r="C536">
+        <v>70.638000000000005</v>
+      </c>
+      <c r="D536">
+        <v>91.701999999999998</v>
+      </c>
+      <c r="E536">
+        <v>93.403999999999996</v>
+      </c>
+      <c r="F536">
+        <v>63.191000000000003</v>
+      </c>
+      <c r="G536">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A537">
+        <v>64.267300000000006</v>
+      </c>
+      <c r="B537">
+        <v>78.513499999999993</v>
+      </c>
+      <c r="C537">
+        <v>70.627399999999994</v>
+      </c>
+      <c r="D537">
+        <v>91.416300000000007</v>
+      </c>
+      <c r="E537">
+        <v>93.2898</v>
+      </c>
+      <c r="F537">
+        <v>63.164200000000001</v>
+      </c>
+      <c r="G537">
+        <v>80.100800000000007</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A538">
+        <v>64.373699999999999</v>
+      </c>
+      <c r="B538">
+        <v>78.249300000000005</v>
+      </c>
+      <c r="C538">
+        <v>75.9816</v>
+      </c>
+      <c r="D538">
+        <v>90.661500000000004</v>
+      </c>
+      <c r="E538">
+        <v>93.003299999999996</v>
+      </c>
+      <c r="F538">
+        <v>63.240099999999998</v>
+      </c>
+      <c r="G538">
+        <v>80.7256</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C539" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A578">
+        <v>2239.02</v>
+      </c>
+      <c r="B578">
+        <v>2230.9899999999998</v>
+      </c>
+      <c r="C578">
+        <v>2217.96</v>
+      </c>
+      <c r="D578">
+        <v>2197.98</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A579">
+        <v>2250</v>
+      </c>
+      <c r="B579">
+        <v>2225</v>
+      </c>
+      <c r="C579">
+        <v>2215</v>
+      </c>
+      <c r="D579">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A580">
+        <v>2241.38</v>
+      </c>
+      <c r="B580">
+        <v>2230.64</v>
+      </c>
+      <c r="C580">
+        <v>2215.23</v>
+      </c>
+      <c r="D580">
+        <v>2199.14</v>
+      </c>
+    </row>
+    <row r="601" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A601">
+        <v>450</v>
+      </c>
+      <c r="B601">
+        <v>93.6</v>
+      </c>
+      <c r="C601">
+        <v>79.650000000000006</v>
+      </c>
+      <c r="D601">
+        <v>77.849999999999994</v>
+      </c>
+      <c r="E601">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="F601">
+        <v>73.8</v>
+      </c>
+      <c r="G601">
+        <v>72</v>
+      </c>
+      <c r="H601">
+        <v>69.75</v>
+      </c>
+      <c r="I601">
+        <v>67.95</v>
+      </c>
+      <c r="J601">
+        <v>67.95</v>
+      </c>
+      <c r="K601">
+        <v>67.95</v>
+      </c>
+      <c r="L601">
+        <v>67.95</v>
+      </c>
+      <c r="M601">
+        <v>67.95</v>
+      </c>
+      <c r="N601">
+        <v>67.95</v>
+      </c>
+      <c r="O601">
+        <v>67.95</v>
+      </c>
+      <c r="P601">
+        <v>67.95</v>
+      </c>
+      <c r="Q601">
+        <v>67.95</v>
+      </c>
+      <c r="R601">
+        <v>67.95</v>
+      </c>
+    </row>
+    <row r="602" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A602">
+        <v>441.05099999999999</v>
+      </c>
+      <c r="B602">
+        <v>256.80599999999998</v>
+      </c>
+      <c r="C602">
+        <v>74.8352</v>
+      </c>
+      <c r="D602">
+        <v>101.60899999999999</v>
+      </c>
+      <c r="E602">
+        <v>73.572299999999998</v>
+      </c>
+      <c r="F602">
+        <v>72.094499999999996</v>
+      </c>
+      <c r="G602">
+        <v>75.069699999999997</v>
+      </c>
+      <c r="H602">
+        <v>75.790899999999993</v>
+      </c>
+      <c r="I602">
+        <v>75.821299999999994</v>
+      </c>
+      <c r="J602">
+        <v>75.4148</v>
+      </c>
+      <c r="K602">
+        <v>74.791300000000007</v>
+      </c>
+      <c r="L602">
+        <v>74.099400000000003</v>
+      </c>
+      <c r="M602">
+        <v>73.425899999999999</v>
+      </c>
+      <c r="N602">
+        <v>72.814800000000005</v>
+      </c>
+      <c r="O602">
+        <v>72.283799999999999</v>
+      </c>
+      <c r="P602">
+        <v>71.8352</v>
+      </c>
+      <c r="Q602">
+        <v>71.4636</v>
+      </c>
+      <c r="R602">
+        <v>71.16</v>
+      </c>
+    </row>
+    <row r="603" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A603">
+        <v>444.63400000000001</v>
+      </c>
+      <c r="B603">
+        <v>248.97900000000001</v>
+      </c>
+      <c r="C603">
+        <v>76.278300000000002</v>
+      </c>
+      <c r="D603">
+        <v>96.345799999999997</v>
+      </c>
+      <c r="E603">
+        <v>77.057199999999995</v>
+      </c>
+      <c r="F603">
+        <v>75.466800000000006</v>
+      </c>
+      <c r="G603">
+        <v>78.1173</v>
+      </c>
+      <c r="H603">
+        <v>78.247</v>
+      </c>
+      <c r="I603">
+        <v>77.599400000000003</v>
+      </c>
+      <c r="J603">
+        <v>76.433899999999994</v>
+      </c>
+      <c r="K603">
+        <v>74.994399999999999</v>
+      </c>
+      <c r="L603">
+        <v>73.472300000000004</v>
+      </c>
+      <c r="M603">
+        <v>72.0017</v>
+      </c>
+      <c r="N603">
+        <v>70.665599999999998</v>
+      </c>
+      <c r="O603">
+        <v>69.507499999999993</v>
+      </c>
+      <c r="P603">
+        <v>68.5428</v>
+      </c>
+      <c r="Q603">
+        <v>67.767899999999997</v>
+      </c>
+      <c r="R603">
+        <v>67.1678</v>
       </c>
     </row>
   </sheetData>

--- a/NNSuperBest/data.xlsx
+++ b/NNSuperBest/data.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -5672,11 +5675,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1812836880"/>
-        <c:axId val="1812837424"/>
+        <c:axId val="2074371008"/>
+        <c:axId val="2074369376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1812836880"/>
+        <c:axId val="2074371008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5718,7 +5721,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1812837424"/>
+        <c:crossAx val="2074369376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5726,7 +5729,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1812837424"/>
+        <c:axId val="2074369376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5777,7 +5780,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1812836880"/>
+        <c:crossAx val="2074371008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5905,17 +5908,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.35020186020307E-2"/>
-          <c:y val="9.0338494349328946E-2"/>
-          <c:w val="0.94023003769060531"/>
-          <c:h val="0.86067149315832525"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -5936,21 +5929,63 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$578:$D$578</c:f>
+              <c:f>Sheet1!$A$601:$R$601</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>2239.02</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2230.9899999999998</c:v>
+                  <c:v>93.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2217.96</c:v>
+                  <c:v>79.650000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2197.98</c:v>
+                  <c:v>77.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67.95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67.95</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67.95</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>67.95</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>67.95</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>67.95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67.95</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5974,21 +6009,63 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$579:$D$579</c:f>
+              <c:f>Sheet1!$A$602:$R$602</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>2250</c:v>
+                  <c:v>441.05099999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2225</c:v>
+                  <c:v>256.80599999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2215</c:v>
+                  <c:v>74.8352</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2200</c:v>
+                  <c:v>101.60899999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.572299999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72.094499999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75.069699999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75.790899999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75.821299999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75.4148</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>74.791300000000007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>74.099400000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>73.425899999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>72.814800000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>72.283799999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>71.8352</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>71.4636</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>71.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6012,21 +6089,63 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$580:$D$580</c:f>
+              <c:f>Sheet1!$A$603:$R$603</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>2241.38</c:v>
+                  <c:v>444.63400000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2230.64</c:v>
+                  <c:v>248.97900000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2215.23</c:v>
+                  <c:v>76.278300000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2199.14</c:v>
+                  <c:v>96.345799999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77.057199999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75.466800000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78.1173</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78.247</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>77.599400000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>76.433899999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>74.994399999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>73.472300000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72.0017</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70.665599999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>69.507499999999993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>68.5428</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67.767899999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67.1678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6042,11 +6161,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1832526640"/>
-        <c:axId val="1832517392"/>
+        <c:axId val="2074374816"/>
+        <c:axId val="2074373184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1832526640"/>
+        <c:axId val="2074374816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6088,7 +6207,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1832517392"/>
+        <c:crossAx val="2074373184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6096,7 +6215,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1832517392"/>
+        <c:axId val="2074373184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6147,7 +6266,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1832526640"/>
+        <c:crossAx val="2074374816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6159,6 +6278,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -6211,7 +6362,44 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Сравнение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> результатов</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.43106292480836295"/>
+          <c:y val="1.7000003569554556E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6244,268 +6432,302 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Эталон</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$601:$R$601</c:f>
+              <c:f>Sheet1!$A$496:$G$496</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>450</c:v>
+                  <c:v>64.254999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93.6</c:v>
+                  <c:v>78.510000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79.650000000000006</c:v>
+                  <c:v>70.64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>77.849999999999994</c:v>
+                  <c:v>91.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75.599999999999994</c:v>
+                  <c:v>93.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>73.8</c:v>
+                  <c:v>63.19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>69.75</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>67.95</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>67.95</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>67.95</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>67.95</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>67.95</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>67.95</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>67.95</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>67.95</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>67.95</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>67.95</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Результат нейросети</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$602:$R$602</c:f>
+              <c:f>Sheet1!$A$497:$G$497</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>441.05099999999999</c:v>
+                  <c:v>64.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>256.80599999999998</c:v>
+                  <c:v>78.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74.8352</c:v>
+                  <c:v>70.63</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>101.60899999999999</c:v>
+                  <c:v>91.71</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>73.572299999999998</c:v>
+                  <c:v>93.26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72.094499999999996</c:v>
+                  <c:v>63.19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>75.069699999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>75.790899999999993</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>75.821299999999994</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>75.4148</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>74.791300000000007</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>74.099400000000003</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>73.425899999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>72.814800000000005</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>72.283799999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>71.8352</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>71.4636</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>71.16</c:v>
+                  <c:v>79.989999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$603:$R$603</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>444.63400000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>248.97900000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>76.278300000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>96.345799999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>77.057199999999995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>75.466800000000006</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>78.1173</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>78.247</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>77.599400000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>76.433899999999994</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>74.994399999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>73.472300000000004</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>72.0017</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>70.665599999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>69.507499999999993</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>68.5428</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>67.767899999999997</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>67.1678</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1832519568"/>
-        <c:axId val="1832521200"/>
-      </c:lineChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2090182048"/>
+        <c:axId val="2090178240"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="1832519568"/>
+        <c:axId val="2090182048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Исследуемые составы </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6542,7 +6764,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1832521200"/>
+        <c:crossAx val="2090178240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6550,7 +6772,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1832521200"/>
+        <c:axId val="2090178240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6570,6 +6792,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Предельное напряжение сдвига, Па</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6601,7 +6880,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1832519568"/>
+        <c:crossAx val="2090182048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6615,7 +6894,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.40742454191371413"/>
+          <c:y val="0.91883644449984236"/>
+          <c:w val="0.24104628286683072"/>
+          <c:h val="4.7812844685111752E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6697,6 +6985,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Сравнение результатов</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -6737,6 +7050,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Эталон</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6747,6 +7063,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$A$496:$G$496</c:f>
@@ -6760,16 +7135,16 @@
                   <c:v>78.510000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70.638000000000005</c:v>
+                  <c:v>70.64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91.701999999999998</c:v>
+                  <c:v>91.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>93.403999999999996</c:v>
+                  <c:v>93.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>63.191000000000003</c:v>
+                  <c:v>63.19</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>80</c:v>
@@ -6781,6 +7156,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Результат с повторением данных</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -6791,6 +7169,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$A$497:$G$497</c:f>
@@ -6798,25 +7235,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>32.127499999999998</c:v>
+                  <c:v>64.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.255000000000003</c:v>
+                  <c:v>78.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.319000000000003</c:v>
+                  <c:v>70.63</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45.850999999999999</c:v>
+                  <c:v>91.71</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46.701999999999998</c:v>
+                  <c:v>93.26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.595500000000001</c:v>
+                  <c:v>63.19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40</c:v>
+                  <c:v>79.989999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6825,6 +7262,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>Результат с изменением данных</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent3"/>
@@ -6835,6 +7275,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$A$498:$G$498</c:f>
@@ -6842,77 +7341,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>64.227099999999993</c:v>
+                  <c:v>64.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77.289199999999994</c:v>
+                  <c:v>78.510000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70.537499999999994</c:v>
+                  <c:v>80.56</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>88.955600000000004</c:v>
+                  <c:v>91.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>92.474999999999994</c:v>
+                  <c:v>93.24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>63.159599999999998</c:v>
+                  <c:v>71.010000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>83.290300000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$499:$G$499</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>32.0321</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>39.7072</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35.410699999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40.659599999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>48.018500000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>33.3596</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41.409199999999998</c:v>
+                  <c:v>83.41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -6920,16 +7376,72 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1828965200"/>
-        <c:axId val="1828955408"/>
+        <c:axId val="2101521248"/>
+        <c:axId val="2101525056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1828965200"/>
+        <c:axId val="2101521248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Исследуемые составы </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6966,7 +7478,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1828955408"/>
+        <c:crossAx val="2101525056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6974,7 +7486,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1828955408"/>
+        <c:axId val="2101525056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6994,6 +7506,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Предельное напряжение сдвига, Па</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7025,7 +7593,1079 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1828965200"/>
+        <c:crossAx val="2101521248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25307241548873682"/>
+          <c:y val="0.93390088832167817"/>
+          <c:w val="0.54059056800529548"/>
+          <c:h val="4.1504201469110151E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Сравнение результатов</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Эталон 1го типа на основе барита</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$547:$H$547</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>64.254999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.638000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.701999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.403999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63.191000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Результат 1го типа</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3814853097891674E-17"/>
+                  <c:y val="-2.6180696740949909E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.7629706195783349E-17"/>
+                  <c:y val="-2.9089663045499897E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.5259412391566697E-17"/>
+                  <c:y val="-2.6180696740949961E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.5259412391566697E-17"/>
+                  <c:y val="-2.3271730436399931E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-3.4907595654599888E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-2.0362764131849929E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-2.6180696740949909E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$548:$H$548</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>64.706199999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.875299999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.2834</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.694100000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.263000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63.858800000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80.399299999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Эталон на основе ферроборового шлака</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$549:$H$549</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>32.127499999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.255000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.319000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.850999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46.701999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.595500000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Результат 2го типа</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-4.0725528263699858E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-1.4544831522749949E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.5259412391566697E-17"/>
+                  <c:y val="-2.6180696740949961E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.1051882478313339E-16"/>
+                  <c:y val="-1.7453797827299992E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-2.6180696740949909E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$550:$H$550</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>33.006599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.942599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.328299999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.619199999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.751100000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.879199999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.171100000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2101519616"/>
+        <c:axId val="2101520704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2101519616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Исследуемые составы </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2101520704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2101520704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Предельное напряжение сдвига, Па</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2101519616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14402,11 +16042,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1812832528"/>
-        <c:axId val="1812831984"/>
+        <c:axId val="2074370464"/>
+        <c:axId val="2074377536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1812832528"/>
+        <c:axId val="2074370464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14448,7 +16088,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1812831984"/>
+        <c:crossAx val="2074377536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14456,7 +16096,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1812831984"/>
+        <c:axId val="2074377536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14507,7 +16147,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1812832528"/>
+        <c:crossAx val="2074370464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -32614,11 +34254,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1812828176"/>
-        <c:axId val="1812833072"/>
+        <c:axId val="2074375360"/>
+        <c:axId val="2074374272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1812828176"/>
+        <c:axId val="2074375360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -32660,7 +34300,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1812833072"/>
+        <c:crossAx val="2074374272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -32668,7 +34308,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1812833072"/>
+        <c:axId val="2074374272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -32719,7 +34359,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1812828176"/>
+        <c:crossAx val="2074375360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -33001,11 +34641,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1812828720"/>
-        <c:axId val="1812839056"/>
+        <c:axId val="2074367744"/>
+        <c:axId val="2074369920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1812828720"/>
+        <c:axId val="2074367744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -33047,7 +34687,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1812839056"/>
+        <c:crossAx val="2074369920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -33055,7 +34695,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1812839056"/>
+        <c:axId val="2074369920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -33106,7 +34746,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1812828720"/>
+        <c:crossAx val="2074367744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -33300,11 +34940,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1812827088"/>
-        <c:axId val="1812829264"/>
+        <c:axId val="2074365024"/>
+        <c:axId val="2074376448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1812827088"/>
+        <c:axId val="2074365024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -33346,7 +34986,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1812829264"/>
+        <c:crossAx val="2074376448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -33354,7 +34994,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1812829264"/>
+        <c:axId val="2074376448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -33405,7 +35045,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1812827088"/>
+        <c:crossAx val="2074365024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -33580,11 +35220,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1812824368"/>
-        <c:axId val="1812834704"/>
+        <c:axId val="2074372096"/>
+        <c:axId val="2074365568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1812824368"/>
+        <c:axId val="2074372096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -33626,7 +35266,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1812834704"/>
+        <c:crossAx val="2074365568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -33634,7 +35274,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1812834704"/>
+        <c:axId val="2074365568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -33685,7 +35325,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1812824368"/>
+        <c:crossAx val="2074372096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -33847,11 +35487,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1812824912"/>
-        <c:axId val="1812839600"/>
+        <c:axId val="2074366112"/>
+        <c:axId val="2074367200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1812824912"/>
+        <c:axId val="2074366112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -33893,7 +35533,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1812839600"/>
+        <c:crossAx val="2074367200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -33901,7 +35541,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1812839600"/>
+        <c:axId val="2074367200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -33952,7 +35592,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1812824912"/>
+        <c:crossAx val="2074366112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -34069,30 +35709,30 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$519:$I$519</c:f>
+              <c:f>Sheet1!$A$536:$G$536</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>450</c:v>
+                  <c:v>64.254999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93.6</c:v>
+                  <c:v>78.510000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79.650000000000006</c:v>
+                  <c:v>70.638000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>77.849999999999994</c:v>
+                  <c:v>91.701999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75.599999999999994</c:v>
+                  <c:v>93.403999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>73.8</c:v>
+                  <c:v>63.191000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -34116,36 +35756,30 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$520:$I$520</c:f>
+              <c:f>Sheet1!$A$537:$G$537</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>449.94600000000003</c:v>
+                  <c:v>64.267300000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.262</c:v>
+                  <c:v>78.513499999999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73.566299999999998</c:v>
+                  <c:v>70.627399999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.022000000000006</c:v>
+                  <c:v>91.416300000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>77.658100000000005</c:v>
+                  <c:v>93.2898</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76.269099999999995</c:v>
+                  <c:v>63.164200000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>73.161799999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>69.579300000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>66.2089</c:v>
+                  <c:v>80.100800000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -34169,36 +35803,30 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$521:$I$521</c:f>
+              <c:f>Sheet1!$A$538:$G$538</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>449.09399999999999</c:v>
+                  <c:v>64.373699999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.558099999999996</c:v>
+                  <c:v>78.249300000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73.581299999999999</c:v>
+                  <c:v>75.9816</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74.933599999999998</c:v>
+                  <c:v>90.661500000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76.724800000000002</c:v>
+                  <c:v>93.003299999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76.117900000000006</c:v>
+                  <c:v>63.240099999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>73.505799999999994</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>69.7209</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>65.469200000000001</c:v>
+                  <c:v>80.7256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -34214,11 +35842,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1828949968"/>
-        <c:axId val="1828953776"/>
+        <c:axId val="2074376992"/>
+        <c:axId val="2074368832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1828949968"/>
+        <c:axId val="2074376992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -34260,7 +35888,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1828953776"/>
+        <c:crossAx val="2074368832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -34268,7 +35896,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1828953776"/>
+        <c:axId val="2074368832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -34319,7 +35947,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1828949968"/>
+        <c:crossAx val="2074376992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -34331,38 +35959,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -34447,7 +36043,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.35020186020307E-2"/>
+          <c:y val="9.0338494349328946E-2"/>
+          <c:w val="0.94023003769060531"/>
+          <c:h val="0.86067149315832525"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -34468,30 +36074,21 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$536:$G$536</c:f>
+              <c:f>Sheet1!$A$578:$D$578</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>64.254999999999995</c:v>
+                  <c:v>2239.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78.510000000000005</c:v>
+                  <c:v>2230.9899999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70.638000000000005</c:v>
+                  <c:v>2217.96</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91.701999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>93.403999999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>63.191000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>80</c:v>
+                  <c:v>2197.98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -34515,30 +36112,21 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$537:$G$537</c:f>
+              <c:f>Sheet1!$A$579:$D$579</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>64.267300000000006</c:v>
+                  <c:v>2250</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78.513499999999993</c:v>
+                  <c:v>2225</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70.627399999999994</c:v>
+                  <c:v>2215</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91.416300000000007</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>93.2898</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>63.164200000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>80.100800000000007</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -34562,30 +36150,21 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$538:$G$538</c:f>
+              <c:f>Sheet1!$A$580:$D$580</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>64.373699999999999</c:v>
+                  <c:v>2241.38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78.249300000000005</c:v>
+                  <c:v>2230.64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75.9816</c:v>
+                  <c:v>2215.23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90.661500000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>93.003299999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>63.240099999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>80.7256</c:v>
+                  <c:v>2199.14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -34601,11 +36180,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1610900928"/>
-        <c:axId val="1610899296"/>
+        <c:axId val="2074362848"/>
+        <c:axId val="2074363392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1610900928"/>
+        <c:axId val="2074362848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -34647,7 +36226,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1610899296"/>
+        <c:crossAx val="2074363392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -34655,7 +36234,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1610899296"/>
+        <c:axId val="2074363392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -34706,7 +36285,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1610900928"/>
+        <c:crossAx val="2074362848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -34876,6 +36455,46 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -36268,7 +37887,7 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -36376,11 +37995,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -36391,11 +38005,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -36427,9 +38036,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -36784,6 +38390,509 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -41576,20 +43685,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>107576</xdr:colOff>
-      <xdr:row>513</xdr:row>
-      <xdr:rowOff>17930</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>8964</xdr:colOff>
+      <xdr:row>567</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>412376</xdr:colOff>
-      <xdr:row>528</xdr:row>
-      <xdr:rowOff>71718</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>80682</xdr:colOff>
+      <xdr:row>583</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvPr id="17" name="Chart 16"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -41606,20 +43715,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>528</xdr:row>
-      <xdr:rowOff>17930</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>125506</xdr:colOff>
+      <xdr:row>584</xdr:row>
+      <xdr:rowOff>26893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>557</xdr:row>
-      <xdr:rowOff>71718</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>349623</xdr:colOff>
+      <xdr:row>614</xdr:row>
+      <xdr:rowOff>143434</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name="Chart 16"/>
+        <xdr:cNvPr id="19" name="Chart 18"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -41636,20 +43745,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>564</xdr:row>
-      <xdr:rowOff>125505</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>322730</xdr:colOff>
+      <xdr:row>605</xdr:row>
+      <xdr:rowOff>26895</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>268940</xdr:colOff>
-      <xdr:row>595</xdr:row>
-      <xdr:rowOff>62752</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>637</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="19" name="Chart 18"/>
+        <xdr:cNvPr id="20" name="Chart 19"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -41666,20 +43775,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>582707</xdr:colOff>
-      <xdr:row>583</xdr:row>
-      <xdr:rowOff>26895</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>484</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>615</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>509</xdr:row>
+      <xdr:rowOff>71717</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="20" name="Chart 19"/>
+        <xdr:cNvPr id="9" name="Chart 8"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -41696,20 +43805,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>233082</xdr:colOff>
-      <xdr:row>489</xdr:row>
-      <xdr:rowOff>62752</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>509</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>89646</xdr:colOff>
-      <xdr:row>510</xdr:row>
-      <xdr:rowOff>26894</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>170329</xdr:colOff>
+      <xdr:row>538</xdr:row>
+      <xdr:rowOff>98611</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="21" name="Chart 20"/>
+        <xdr:cNvPr id="10" name="Chart 9"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -41724,7 +43833,50 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>71717</xdr:colOff>
+      <xdr:row>540</xdr:row>
+      <xdr:rowOff>98611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>573740</xdr:colOff>
+      <xdr:row>564</xdr:row>
+      <xdr:rowOff>161364</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet4"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -41992,8 +44144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R603"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A482" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X491" sqref="X491"/>
+    <sheetView tabSelected="1" topLeftCell="B535" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B547" sqref="B547:H550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -55254,98 +57406,121 @@
         <v>78.510000000000005</v>
       </c>
       <c r="C496">
-        <v>70.638000000000005</v>
+        <v>70.64</v>
       </c>
       <c r="D496">
-        <v>91.701999999999998</v>
+        <v>91.7</v>
       </c>
       <c r="E496">
-        <v>93.403999999999996</v>
+        <v>93.4</v>
       </c>
       <c r="F496">
-        <v>63.191000000000003</v>
+        <v>63.19</v>
       </c>
       <c r="G496">
         <v>80</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497">
-        <f>A496/2</f>
-        <v>32.127499999999998</v>
+        <v>64.25</v>
       </c>
       <c r="B497">
-        <f>B496/2</f>
-        <v>39.255000000000003</v>
+        <v>78.5</v>
       </c>
       <c r="C497">
-        <f>C496/2</f>
-        <v>35.319000000000003</v>
+        <v>70.63</v>
       </c>
       <c r="D497">
-        <f>D496/2</f>
-        <v>45.850999999999999</v>
+        <v>91.71</v>
       </c>
       <c r="E497">
-        <f>E496/2</f>
-        <v>46.701999999999998</v>
+        <v>93.26</v>
       </c>
       <c r="F497">
-        <f>F496/2</f>
-        <v>31.595500000000001</v>
+        <v>63.19</v>
       </c>
       <c r="G497">
-        <f>G496/2</f>
-        <v>40</v>
+        <v>79.989999999999995</v>
       </c>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A498">
-        <v>64.227099999999993</v>
+        <v>64.25</v>
       </c>
       <c r="B498">
-        <v>77.289199999999994</v>
+        <v>78.510000000000005</v>
       </c>
       <c r="C498">
-        <v>70.537499999999994</v>
+        <v>80.56</v>
       </c>
       <c r="D498">
-        <v>88.955600000000004</v>
+        <v>91.7</v>
       </c>
       <c r="E498">
-        <v>92.474999999999994</v>
+        <v>93.24</v>
       </c>
       <c r="F498">
-        <v>63.159599999999998</v>
+        <v>71.010000000000005</v>
       </c>
       <c r="G498">
-        <v>83.290300000000002</v>
+        <v>83.41</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A499">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A500">
+        <f>A496/2</f>
+        <v>32.127499999999998</v>
+      </c>
+      <c r="B500">
+        <f>B496/2</f>
+        <v>39.255000000000003</v>
+      </c>
+      <c r="C500">
+        <f>C496/2</f>
+        <v>35.32</v>
+      </c>
+      <c r="D500">
+        <f>D496/2</f>
+        <v>45.85</v>
+      </c>
+      <c r="E500">
+        <f>E496/2</f>
+        <v>46.7</v>
+      </c>
+      <c r="F500">
+        <f>F496/2</f>
+        <v>31.594999999999999</v>
+      </c>
+      <c r="G500">
+        <f>G496/2</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A501">
         <v>32.0321</v>
       </c>
-      <c r="B499">
+      <c r="B501">
         <v>39.7072</v>
       </c>
-      <c r="C499">
+      <c r="C501">
         <v>35.410699999999999</v>
       </c>
-      <c r="D499">
+      <c r="D501">
         <v>40.659599999999998</v>
       </c>
-      <c r="E499">
+      <c r="E501">
         <v>48.018500000000003</v>
       </c>
-      <c r="F499">
+      <c r="F501">
         <v>33.3596</v>
       </c>
-      <c r="G499">
+      <c r="G501">
         <v>41.409199999999998</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>450</v>
       </c>
@@ -55358,17 +57533,8 @@
       <c r="D519">
         <v>77.849999999999994</v>
       </c>
-      <c r="E519">
-        <v>75.599999999999994</v>
-      </c>
-      <c r="F519">
-        <v>73.8</v>
-      </c>
-      <c r="G519">
-        <v>72</v>
-      </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>449.94600000000003</v>
       </c>
@@ -55381,23 +57547,8 @@
       <c r="D520">
         <v>76.022000000000006</v>
       </c>
-      <c r="E520">
-        <v>77.658100000000005</v>
-      </c>
-      <c r="F520">
-        <v>76.269099999999995</v>
-      </c>
-      <c r="G520">
-        <v>73.161799999999999</v>
-      </c>
-      <c r="H520">
-        <v>69.579300000000003</v>
-      </c>
-      <c r="I520">
-        <v>66.2089</v>
-      </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>449.09399999999999</v>
       </c>
@@ -55409,21 +57560,6 @@
       </c>
       <c r="D521">
         <v>74.933599999999998</v>
-      </c>
-      <c r="E521">
-        <v>76.724800000000002</v>
-      </c>
-      <c r="F521">
-        <v>76.117900000000006</v>
-      </c>
-      <c r="G521">
-        <v>73.505799999999994</v>
-      </c>
-      <c r="H521">
-        <v>69.7209</v>
-      </c>
-      <c r="I521">
-        <v>65.469200000000001</v>
       </c>
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.3">
@@ -55498,6 +57634,98 @@
     <row r="539" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C539" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="547" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B547">
+        <v>64.254999999999995</v>
+      </c>
+      <c r="C547">
+        <v>78.510000000000005</v>
+      </c>
+      <c r="D547">
+        <v>70.638000000000005</v>
+      </c>
+      <c r="E547">
+        <v>91.701999999999998</v>
+      </c>
+      <c r="F547">
+        <v>93.403999999999996</v>
+      </c>
+      <c r="G547">
+        <v>63.191000000000003</v>
+      </c>
+      <c r="H547">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="548" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B548">
+        <v>64.706199999999995</v>
+      </c>
+      <c r="C548">
+        <v>78.875299999999996</v>
+      </c>
+      <c r="D548">
+        <v>71.2834</v>
+      </c>
+      <c r="E548">
+        <v>91.694100000000006</v>
+      </c>
+      <c r="F548">
+        <v>93.263000000000005</v>
+      </c>
+      <c r="G548">
+        <v>63.858800000000002</v>
+      </c>
+      <c r="H548">
+        <v>80.399299999999997</v>
+      </c>
+    </row>
+    <row r="549" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B549">
+        <v>32.127499999999998</v>
+      </c>
+      <c r="C549">
+        <v>39.255000000000003</v>
+      </c>
+      <c r="D549">
+        <v>35.319000000000003</v>
+      </c>
+      <c r="E549">
+        <v>45.850999999999999</v>
+      </c>
+      <c r="F549">
+        <v>46.701999999999998</v>
+      </c>
+      <c r="G549">
+        <v>31.595500000000001</v>
+      </c>
+      <c r="H549">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="550" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B550">
+        <v>33.006599999999999</v>
+      </c>
+      <c r="C550">
+        <v>41.942599999999999</v>
+      </c>
+      <c r="D550">
+        <v>36.328299999999999</v>
+      </c>
+      <c r="E550">
+        <v>42.619199999999999</v>
+      </c>
+      <c r="F550">
+        <v>47.751100000000001</v>
+      </c>
+      <c r="G550">
+        <v>32.879199999999997</v>
+      </c>
+      <c r="H550">
+        <v>43.171100000000003</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.3">
